--- a/brown_signs.xlsx
+++ b/brown_signs.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozbek\Desktop\brown_signs_denmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453F6F1F-AE7F-4A9D-BDBB-3516C63C77FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C144814-12F8-4167-BF79-F062840A26E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1A3F83CA-556E-4C31-A6BA-F78F2B7B4EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$140</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -545,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -563,6 +566,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -920,10 +926,10 @@
         <v>10.5961946483989</v>
       </c>
       <c r="D2" s="3">
-        <v>57.73</v>
+        <v>57.431761481265902</v>
       </c>
       <c r="E2" s="3">
-        <v>10.58</v>
+        <v>10.5296638118365</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -934,16 +940,16 @@
         <v>66</v>
       </c>
       <c r="B3" s="3">
-        <v>57.594999999999999</v>
+        <v>57.587331086454199</v>
       </c>
       <c r="C3" s="3">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="D3" s="3">
-        <v>57.59</v>
-      </c>
-      <c r="E3" s="3">
-        <v>9.9</v>
+        <v>9.9845214028583094</v>
+      </c>
+      <c r="D3" s="7">
+        <v>57.573185269355797</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10.000465998351901</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -954,16 +960,16 @@
         <v>67</v>
       </c>
       <c r="B4" s="3">
-        <v>57.463999999999999</v>
+        <v>57.407168236193499</v>
       </c>
       <c r="C4" s="3">
-        <v>9.7739999999999991</v>
-      </c>
-      <c r="D4" s="3">
-        <v>57.47</v>
-      </c>
-      <c r="E4" s="3">
-        <v>9.8000000000000007</v>
+        <v>10.019764511544301</v>
+      </c>
+      <c r="D4" s="7">
+        <v>57.418973206030998</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10.0291509446332</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -980,10 +986,10 @@
         <v>10.51</v>
       </c>
       <c r="D5" s="3">
-        <v>57.4</v>
+        <v>57.376792939036903</v>
       </c>
       <c r="E5" s="3">
-        <v>10.45</v>
+        <v>10.5044412604309</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -999,11 +1005,11 @@
       <c r="C6" s="3">
         <v>9.77</v>
       </c>
-      <c r="D6" s="3">
-        <v>57.34</v>
-      </c>
-      <c r="E6" s="3">
-        <v>9.7799999999999994</v>
+      <c r="D6" s="7">
+        <v>57.3584673055108</v>
+      </c>
+      <c r="E6" s="7">
+        <v>10.029379609949601</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -1020,10 +1026,10 @@
         <v>10.27</v>
       </c>
       <c r="D7" s="3">
-        <v>57.19</v>
+        <v>57.2470180636668</v>
       </c>
       <c r="E7" s="3">
-        <v>10.26</v>
+        <v>10.325407540665701</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -1039,11 +1045,11 @@
       <c r="C8" s="3">
         <v>9.69</v>
       </c>
-      <c r="D8" s="3">
-        <v>57.15</v>
-      </c>
-      <c r="E8" s="3">
-        <v>9.68</v>
+      <c r="D8" s="7">
+        <v>57.197781406415899</v>
+      </c>
+      <c r="E8" s="7">
+        <v>9.9335105406636703</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -1060,10 +1066,10 @@
         <v>10.32</v>
       </c>
       <c r="D9" s="3">
-        <v>57.14</v>
+        <v>57.165319955585197</v>
       </c>
       <c r="E9" s="3">
-        <v>10.31</v>
+        <v>10.1862237271719</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -1079,11 +1085,11 @@
       <c r="C10" s="3">
         <v>9.77</v>
       </c>
-      <c r="D10" s="3">
-        <v>57.08</v>
-      </c>
-      <c r="E10" s="3">
-        <v>9.75</v>
+      <c r="D10" s="7">
+        <v>57.247566866366803</v>
+      </c>
+      <c r="E10" s="7">
+        <v>9.9730552695022396</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
@@ -1099,11 +1105,11 @@
       <c r="C11" s="3">
         <v>9.9139999999999997</v>
       </c>
-      <c r="D11" s="3">
-        <v>57.07</v>
-      </c>
-      <c r="E11" s="3">
-        <v>9.94</v>
+      <c r="D11" s="7">
+        <v>57.067395297684001</v>
+      </c>
+      <c r="E11" s="7">
+        <v>9.9502743713506501</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -1119,11 +1125,11 @@
       <c r="C12" s="3">
         <v>9.9130000000000003</v>
       </c>
-      <c r="D12" s="3">
-        <v>57.03</v>
-      </c>
-      <c r="E12" s="3">
-        <v>9.9</v>
+      <c r="D12" s="7">
+        <v>57.030231552493099</v>
+      </c>
+      <c r="E12" s="7">
+        <v>9.9719391848395595</v>
       </c>
       <c r="F12" s="6">
         <v>1</v>
@@ -1139,11 +1145,11 @@
       <c r="C13" s="3">
         <v>9.8970000000000002</v>
       </c>
-      <c r="D13" s="3">
-        <v>57.02</v>
-      </c>
-      <c r="E13" s="3">
-        <v>9.89</v>
+      <c r="D13">
+        <v>57.001754305740398</v>
+      </c>
+      <c r="E13">
+        <v>9.9084855406557804</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -1154,16 +1160,16 @@
         <v>81</v>
       </c>
       <c r="B14" s="3">
-        <v>56.96</v>
+        <v>56.958577820967101</v>
       </c>
       <c r="C14" s="3">
-        <v>8.36</v>
-      </c>
-      <c r="D14" s="3">
-        <v>56.96</v>
-      </c>
-      <c r="E14" s="3">
-        <v>8.35</v>
+        <v>8.3683971062504696</v>
+      </c>
+      <c r="D14">
+        <v>56.383401219751697</v>
+      </c>
+      <c r="E14">
+        <v>8.6638202637209591</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -1179,11 +1185,11 @@
       <c r="C15" s="3">
         <v>10.220000000000001</v>
       </c>
-      <c r="D15" s="3">
-        <v>56.91</v>
-      </c>
-      <c r="E15" s="3">
-        <v>10.17</v>
+      <c r="D15">
+        <v>56.9532637837411</v>
+      </c>
+      <c r="E15">
+        <v>9.8679879105234303</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -1199,11 +1205,11 @@
       <c r="C16" s="3">
         <v>9.84</v>
       </c>
-      <c r="D16" s="3">
-        <v>56.84</v>
-      </c>
-      <c r="E16" s="3">
-        <v>9.85</v>
+      <c r="D16">
+        <v>56.877442007742999</v>
+      </c>
+      <c r="E16">
+        <v>9.8010418125597401</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
@@ -1219,11 +1225,11 @@
       <c r="C17" s="3">
         <v>9.5180000000000007</v>
       </c>
-      <c r="D17" s="3">
-        <v>56.81</v>
-      </c>
-      <c r="E17" s="3">
-        <v>9.77</v>
+      <c r="D17">
+        <v>56.831024640751203</v>
+      </c>
+      <c r="E17">
+        <v>9.7281597215774607</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -1239,11 +1245,11 @@
       <c r="C18" s="3">
         <v>9.94</v>
       </c>
-      <c r="D18" s="3">
-        <v>56.78</v>
-      </c>
-      <c r="E18" s="3">
-        <v>9.8800000000000008</v>
+      <c r="D18">
+        <v>56.786739778388899</v>
+      </c>
+      <c r="E18">
+        <v>9.7001259155201893</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
@@ -1259,11 +1265,11 @@
       <c r="C19" s="3">
         <v>10.023999999999999</v>
       </c>
-      <c r="D19" s="3">
-        <v>56.64</v>
-      </c>
-      <c r="E19" s="3">
-        <v>9.9600000000000009</v>
+      <c r="D19">
+        <v>56.579258536130503</v>
+      </c>
+      <c r="E19">
+        <v>9.82069923643596</v>
       </c>
       <c r="F19" s="6">
         <v>1</v>
@@ -1279,11 +1285,11 @@
       <c r="C20" s="3">
         <v>9.7899999999999991</v>
       </c>
-      <c r="D20" s="3">
-        <v>56.65</v>
-      </c>
-      <c r="E20" s="3">
-        <v>9.81</v>
+      <c r="D20">
+        <v>56.622353820633201</v>
+      </c>
+      <c r="E20">
+        <v>9.7331838921158695</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -1299,11 +1305,11 @@
       <c r="C21" s="3">
         <v>9.5489999999999995</v>
       </c>
-      <c r="D21" s="3">
-        <v>56.56</v>
-      </c>
-      <c r="E21" s="3">
-        <v>9.6</v>
+      <c r="D21">
+        <v>56.588378787362998</v>
+      </c>
+      <c r="E21">
+        <v>9.7760577874907</v>
       </c>
       <c r="F21" s="6">
         <v>1</v>
@@ -1319,11 +1325,11 @@
       <c r="C22" s="3">
         <v>9.84</v>
       </c>
-      <c r="D22" s="3">
-        <v>56.54</v>
-      </c>
-      <c r="E22" s="3">
-        <v>9.85</v>
+      <c r="D22">
+        <v>56.540406347137903</v>
+      </c>
+      <c r="E22">
+        <v>9.9077597468347793</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -1339,11 +1345,11 @@
       <c r="C23" s="3">
         <v>8.7989999999999995</v>
       </c>
-      <c r="D23" s="3">
-        <v>56.46</v>
-      </c>
-      <c r="E23" s="3">
-        <v>8.8000000000000007</v>
+      <c r="D23">
+        <v>56.363541782240297</v>
+      </c>
+      <c r="E23">
+        <v>8.7274962501697697</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
@@ -1359,11 +1365,11 @@
       <c r="C24" s="3">
         <v>10.038</v>
       </c>
-      <c r="D24" s="3">
-        <v>56.49</v>
-      </c>
-      <c r="E24" s="3">
-        <v>10.029999999999999</v>
+      <c r="D24">
+        <v>56.486205569362397</v>
+      </c>
+      <c r="E24">
+        <v>9.9807931316331295</v>
       </c>
       <c r="F24" s="6">
         <v>0</v>
@@ -1379,11 +1385,11 @@
       <c r="C25" s="3">
         <v>10.039999999999999</v>
       </c>
-      <c r="D25" s="3">
-        <v>56.48</v>
-      </c>
-      <c r="E25" s="3">
-        <v>10.029999999999999</v>
+      <c r="D25">
+        <v>56.463417095520001</v>
+      </c>
+      <c r="E25">
+        <v>9.9863009050944491</v>
       </c>
       <c r="F25" s="6">
         <v>1</v>
@@ -1399,11 +1405,11 @@
       <c r="C26" s="3">
         <v>10.353999999999999</v>
       </c>
-      <c r="D26" s="3">
-        <v>56.4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>10.28</v>
+      <c r="D26">
+        <v>56.305025691342301</v>
+      </c>
+      <c r="E26">
+        <v>10.1221776343592</v>
       </c>
       <c r="F26" s="6">
         <v>1</v>
@@ -1419,11 +1425,11 @@
       <c r="C27" s="3">
         <v>9.8800000000000008</v>
       </c>
-      <c r="D27" s="3">
-        <v>56.37</v>
-      </c>
-      <c r="E27" s="3">
-        <v>9.92</v>
+      <c r="D27">
+        <v>56.429044475677898</v>
+      </c>
+      <c r="E27">
+        <v>10.041782663205799</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -1439,11 +1445,11 @@
       <c r="C28" s="3">
         <v>10.51</v>
       </c>
-      <c r="D28" s="3">
-        <v>56.34</v>
-      </c>
-      <c r="E28" s="3">
-        <v>10.35</v>
+      <c r="D28">
+        <v>56.410415033462897</v>
+      </c>
+      <c r="E28">
+        <v>10.0799316398743</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -1454,16 +1460,16 @@
         <v>71</v>
       </c>
       <c r="B29" s="3">
-        <v>56.21</v>
+        <v>56.2835042606144</v>
       </c>
       <c r="C29" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="D29" s="3">
-        <v>56.24</v>
-      </c>
-      <c r="E29" s="3">
-        <v>10.56</v>
+        <v>10.4792092372148</v>
+      </c>
+      <c r="D29">
+        <v>56.285785864446098</v>
+      </c>
+      <c r="E29">
+        <v>10.331197124987799</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
@@ -1479,11 +1485,11 @@
       <c r="C30" s="3">
         <v>10.191000000000001</v>
       </c>
-      <c r="D30" s="3">
-        <v>56.15</v>
-      </c>
-      <c r="E30" s="3">
-        <v>10.17</v>
+      <c r="D30">
+        <v>56.184505349247203</v>
+      </c>
+      <c r="E30">
+        <v>10.0700154275945</v>
       </c>
       <c r="F30" s="6">
         <v>1</v>
@@ -1499,11 +1505,11 @@
       <c r="C31" s="3">
         <v>9.4700000000000006</v>
       </c>
-      <c r="D31" s="3">
-        <v>56.16</v>
-      </c>
-      <c r="E31" s="3">
-        <v>9.48</v>
+      <c r="D31">
+        <v>56.150195310444403</v>
+      </c>
+      <c r="E31">
+        <v>9.6484028739488892</v>
       </c>
       <c r="F31" s="6">
         <v>1</v>
@@ -1519,11 +1525,11 @@
       <c r="C32" s="3">
         <v>9.5399999999999991</v>
       </c>
-      <c r="D32" s="3">
-        <v>56.15</v>
-      </c>
-      <c r="E32" s="3">
-        <v>9.52</v>
+      <c r="D32">
+        <v>56.164895095341301</v>
+      </c>
+      <c r="E32">
+        <v>9.6065326261687005</v>
       </c>
       <c r="F32" s="6">
         <v>1</v>
@@ -1539,11 +1545,11 @@
       <c r="C33" s="3">
         <v>9.5399999999999991</v>
       </c>
-      <c r="D33" s="3">
-        <v>56.16</v>
-      </c>
-      <c r="E33" s="3">
-        <v>9.5299999999999994</v>
+      <c r="D33">
+        <v>56.198355159255698</v>
+      </c>
+      <c r="E33">
+        <v>9.5559301810845696</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
@@ -1554,19 +1560,19 @@
         <v>78</v>
       </c>
       <c r="B34" s="3">
-        <v>56.16</v>
+        <v>56.169058145055601</v>
       </c>
       <c r="C34" s="3">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="D34" s="3">
-        <v>56.16</v>
-      </c>
-      <c r="E34" s="3">
-        <v>9.5399999999999991</v>
+        <v>9.5532160580482799</v>
+      </c>
+      <c r="D34">
+        <v>56.202651138997098</v>
+      </c>
+      <c r="E34">
+        <v>9.5177777357883393</v>
       </c>
       <c r="F34" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1579,11 +1585,11 @@
       <c r="C35" s="3">
         <v>10.199548</v>
       </c>
-      <c r="D35" s="3">
-        <v>56.12</v>
-      </c>
-      <c r="E35" s="3">
-        <v>10.17</v>
+      <c r="D35">
+        <v>56.134400603931297</v>
+      </c>
+      <c r="E35">
+        <v>10.1473619179874</v>
       </c>
       <c r="F35" s="6">
         <v>1</v>
@@ -1599,11 +1605,11 @@
       <c r="C36" s="3">
         <v>8.98</v>
       </c>
-      <c r="D36" s="3">
-        <v>56.14</v>
-      </c>
-      <c r="E36" s="3">
-        <v>9.02</v>
+      <c r="D36">
+        <v>56.131819052757798</v>
+      </c>
+      <c r="E36">
+        <v>9.0127334557438399</v>
       </c>
       <c r="F36" s="6">
         <v>1</v>
@@ -1619,11 +1625,11 @@
       <c r="C37" s="3">
         <v>8.9700000000000006</v>
       </c>
-      <c r="D37" s="3">
-        <v>56.12</v>
-      </c>
-      <c r="E37" s="3">
-        <v>8.98</v>
+      <c r="D37">
+        <v>56.120286861733703</v>
+      </c>
+      <c r="E37">
+        <v>9.0549594879943296</v>
       </c>
       <c r="F37" s="6">
         <v>1</v>
@@ -1639,11 +1645,11 @@
       <c r="C38" s="3">
         <v>9.702</v>
       </c>
-      <c r="D38" s="3">
-        <v>56.12</v>
-      </c>
-      <c r="E38" s="3">
-        <v>9.6999999999999993</v>
+      <c r="D38">
+        <v>56.0419549822292</v>
+      </c>
+      <c r="E38">
+        <v>9.8971156826716999</v>
       </c>
       <c r="F38" s="6">
         <v>1</v>
@@ -1654,16 +1660,16 @@
         <v>20</v>
       </c>
       <c r="B39" s="3">
-        <v>56.09</v>
+        <v>56.139309137418003</v>
       </c>
       <c r="C39" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="D39" s="3">
-        <v>56.11</v>
-      </c>
-      <c r="E39" s="3">
-        <v>9.6199999999999992</v>
+        <v>9.6311473911081702</v>
+      </c>
+      <c r="D39">
+        <v>56.024294430347403</v>
+      </c>
+      <c r="E39">
+        <v>9.8822494396144496</v>
       </c>
       <c r="F39" s="6">
         <v>1</v>
@@ -1679,11 +1685,11 @@
       <c r="C40" s="3">
         <v>10.22354</v>
       </c>
-      <c r="D40" s="3">
-        <v>56.09</v>
-      </c>
-      <c r="E40" s="3">
-        <v>10.15</v>
+      <c r="D40">
+        <v>56.118776592066801</v>
+      </c>
+      <c r="E40">
+        <v>10.0763220917512</v>
       </c>
       <c r="F40" s="6">
         <v>1</v>
@@ -1694,16 +1700,16 @@
         <v>110</v>
       </c>
       <c r="B41" s="3">
-        <v>56.04</v>
+        <v>56.039403893593501</v>
       </c>
       <c r="C41" s="3">
-        <v>12.63</v>
-      </c>
-      <c r="D41" s="3">
-        <v>56.03</v>
-      </c>
-      <c r="E41" s="3">
-        <v>12.58</v>
+        <v>12.622367626626099</v>
+      </c>
+      <c r="D41">
+        <v>56.029100002111598</v>
+      </c>
+      <c r="E41">
+        <v>12.5975728864987</v>
       </c>
       <c r="F41" s="6">
         <v>1</v>
@@ -1714,16 +1720,16 @@
         <v>111</v>
       </c>
       <c r="B42" s="3">
-        <v>56.04</v>
+        <v>56.039117767838</v>
       </c>
       <c r="C42" s="3">
-        <v>12.63</v>
-      </c>
-      <c r="D42" s="3">
-        <v>56.03</v>
-      </c>
-      <c r="E42" s="3">
-        <v>12.58</v>
+        <v>12.6167537149914</v>
+      </c>
+      <c r="D42">
+        <v>56.000246121360703</v>
+      </c>
+      <c r="E42">
+        <v>12.522471972384499</v>
       </c>
       <c r="F42" s="6">
         <v>1</v>
@@ -1739,11 +1745,11 @@
       <c r="C43" s="3">
         <v>9.8350000000000009</v>
       </c>
-      <c r="D43" s="3">
-        <v>56.04</v>
-      </c>
-      <c r="E43" s="3">
-        <v>9.8000000000000007</v>
+      <c r="D43">
+        <v>55.972710798681497</v>
+      </c>
+      <c r="E43">
+        <v>9.8643774392803198</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
@@ -1759,11 +1765,11 @@
       <c r="C44" s="3">
         <v>9.85</v>
       </c>
-      <c r="D44" s="3">
-        <v>56.03</v>
-      </c>
-      <c r="E44" s="3">
-        <v>9.86</v>
+      <c r="D44">
+        <v>56.147819403046299</v>
+      </c>
+      <c r="E44">
+        <v>9.8294768576320397</v>
       </c>
       <c r="F44" s="6">
         <v>0</v>
@@ -1779,11 +1785,11 @@
       <c r="C45" s="3">
         <v>9.4239999999999995</v>
       </c>
-      <c r="D45" s="3">
-        <v>55.7</v>
-      </c>
-      <c r="E45" s="3">
-        <v>9.5</v>
+      <c r="D45">
+        <v>55.718919392443603</v>
+      </c>
+      <c r="E45">
+        <v>9.5758123480828008</v>
       </c>
       <c r="F45" s="6">
         <v>1</v>
@@ -1799,11 +1805,11 @@
       <c r="C46" s="3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D46" s="3">
-        <v>56.03</v>
-      </c>
-      <c r="E46" s="3">
-        <v>9.32</v>
+      <c r="D46">
+        <v>56.129292344415497</v>
+      </c>
+      <c r="E46">
+        <v>9.3624971611360905</v>
       </c>
       <c r="F46" s="6">
         <v>0</v>
@@ -1819,11 +1825,11 @@
       <c r="C47" s="3">
         <v>8.1199999999999992</v>
       </c>
-      <c r="D47" s="3">
-        <v>56</v>
-      </c>
-      <c r="E47" s="3">
-        <v>8.1</v>
+      <c r="D47">
+        <v>56.131370778647103</v>
+      </c>
+      <c r="E47">
+        <v>8.8722737131514204</v>
       </c>
       <c r="F47" s="6">
         <v>0</v>
@@ -1839,11 +1845,11 @@
       <c r="C48" s="3">
         <v>12.18</v>
       </c>
-      <c r="D48" s="3">
-        <v>55.95</v>
-      </c>
-      <c r="E48" s="3">
-        <v>12.3</v>
+      <c r="D48">
+        <v>55.980376482356398</v>
+      </c>
+      <c r="E48">
+        <v>12.5098094040984</v>
       </c>
       <c r="F48" s="6">
         <v>0</v>
@@ -1859,11 +1865,11 @@
       <c r="C49" s="3">
         <v>9.5120000000000005</v>
       </c>
-      <c r="D49" s="3">
-        <v>56</v>
-      </c>
-      <c r="E49" s="3">
-        <v>9.6</v>
+      <c r="D49">
+        <v>55.910187302844399</v>
+      </c>
+      <c r="E49">
+        <v>9.8185910389796192</v>
       </c>
       <c r="F49" s="6">
         <v>1</v>
@@ -1879,11 +1885,11 @@
       <c r="C50" s="3">
         <v>12.54</v>
       </c>
-      <c r="D50" s="3">
-        <v>55.96</v>
-      </c>
-      <c r="E50" s="3">
-        <v>12.51</v>
+      <c r="D50">
+        <v>55.9642585158429</v>
+      </c>
+      <c r="E50">
+        <v>12.487842920977901</v>
       </c>
       <c r="F50" s="6">
         <v>1</v>
@@ -1899,11 +1905,11 @@
       <c r="C51" s="3">
         <v>12.5</v>
       </c>
-      <c r="D51" s="3">
-        <v>55.95</v>
-      </c>
-      <c r="E51" s="3">
-        <v>12.5</v>
+      <c r="D51">
+        <v>55.931369747910999</v>
+      </c>
+      <c r="E51">
+        <v>12.4792417437314</v>
       </c>
       <c r="F51" s="6">
         <v>0</v>
@@ -1919,11 +1925,11 @@
       <c r="C52" s="3">
         <v>12.39</v>
       </c>
-      <c r="D52" s="3">
-        <v>55.97</v>
-      </c>
-      <c r="E52" s="3">
-        <v>12.38</v>
+      <c r="D52">
+        <v>55.902096015783798</v>
+      </c>
+      <c r="E52">
+        <v>12.473478581533</v>
       </c>
       <c r="F52" s="6">
         <v>0</v>
@@ -1939,11 +1945,11 @@
       <c r="C53" s="3">
         <v>9.1760000000000002</v>
       </c>
-      <c r="D53" s="3">
-        <v>55.94</v>
-      </c>
-      <c r="E53" s="3">
-        <v>9.16</v>
+      <c r="D53">
+        <v>56.010817134199897</v>
+      </c>
+      <c r="E53">
+        <v>9.0312340195612801</v>
       </c>
       <c r="F53" s="6">
         <v>0</v>
@@ -1959,11 +1965,11 @@
       <c r="C54" s="3">
         <v>12.3</v>
       </c>
-      <c r="D54" s="3">
-        <v>55.88</v>
-      </c>
-      <c r="E54" s="3">
-        <v>12.2</v>
+      <c r="D54">
+        <v>55.902095883660998</v>
+      </c>
+      <c r="E54">
+        <v>12.2724124010608</v>
       </c>
       <c r="F54" s="6">
         <v>0</v>
@@ -1979,11 +1985,11 @@
       <c r="C55" s="3">
         <v>9.1449999999999996</v>
       </c>
-      <c r="D55" s="3">
-        <v>55.91</v>
-      </c>
-      <c r="E55" s="3">
-        <v>9.1300000000000008</v>
+      <c r="D55">
+        <v>55.963540247568297</v>
+      </c>
+      <c r="E55">
+        <v>9.1040037053892</v>
       </c>
       <c r="F55" s="6">
         <v>0</v>
@@ -1999,11 +2005,11 @@
       <c r="C56" s="3">
         <v>9.3780000000000001</v>
       </c>
-      <c r="D56" s="3">
-        <v>55.8</v>
-      </c>
-      <c r="E56" s="3">
-        <v>9.4499999999999993</v>
+      <c r="D56">
+        <v>55.828209896791599</v>
+      </c>
+      <c r="E56">
+        <v>9.5264635024965205</v>
       </c>
       <c r="F56" s="6">
         <v>0</v>
@@ -2019,11 +2025,11 @@
       <c r="C57" s="3">
         <v>9.1240000000000006</v>
       </c>
-      <c r="D57" s="3">
-        <v>55.89</v>
-      </c>
-      <c r="E57" s="3">
-        <v>9.11</v>
+      <c r="D57">
+        <v>55.943241350166502</v>
+      </c>
+      <c r="E57">
+        <v>9.1581843046170697</v>
       </c>
       <c r="F57" s="6">
         <v>0</v>
@@ -2039,11 +2045,11 @@
       <c r="C58" s="3">
         <v>12.53</v>
       </c>
-      <c r="D58" s="3">
-        <v>55.87</v>
-      </c>
-      <c r="E58" s="3">
-        <v>12.52</v>
+      <c r="D58">
+        <v>55.873587927607197</v>
+      </c>
+      <c r="E58">
+        <v>12.482710723618601</v>
       </c>
       <c r="F58" s="6">
         <v>0</v>
@@ -2059,11 +2065,11 @@
       <c r="C59" s="3">
         <v>9.907</v>
       </c>
-      <c r="D59" s="3">
-        <v>55.87</v>
-      </c>
-      <c r="E59" s="3">
-        <v>9.9</v>
+      <c r="D59">
+        <v>55.882828665757799</v>
+      </c>
+      <c r="E59">
+        <v>9.7870097765780599</v>
       </c>
       <c r="F59" s="6">
         <v>0</v>
@@ -2079,11 +2085,11 @@
       <c r="C60" s="3">
         <v>12.4</v>
       </c>
-      <c r="D60" s="3">
-        <v>55.8</v>
-      </c>
-      <c r="E60" s="3">
-        <v>12.39</v>
+      <c r="D60">
+        <v>55.792569263048897</v>
+      </c>
+      <c r="E60">
+        <v>12.5310257728644</v>
       </c>
       <c r="F60" s="6">
         <v>0</v>
@@ -2099,11 +2105,11 @@
       <c r="C61" s="3">
         <v>9.23</v>
       </c>
-      <c r="D61" s="3">
-        <v>55.78</v>
-      </c>
-      <c r="E61" s="3">
-        <v>9.2200000000000006</v>
+      <c r="D61">
+        <v>55.863470581782401</v>
+      </c>
+      <c r="E61">
+        <v>9.2595434361303308</v>
       </c>
       <c r="F61" s="6">
         <v>0</v>
@@ -2119,11 +2125,11 @@
       <c r="C62" s="3">
         <v>12.48</v>
       </c>
-      <c r="D62" s="3">
-        <v>55.77</v>
-      </c>
-      <c r="E62" s="3">
-        <v>12.45</v>
+      <c r="D62">
+        <v>55.779565439616</v>
+      </c>
+      <c r="E62">
+        <v>12.4880710061977</v>
       </c>
       <c r="F62" s="6">
         <v>0</v>
@@ -2139,11 +2145,11 @@
       <c r="C63" s="3">
         <v>11.39</v>
       </c>
-      <c r="D63" s="3">
-        <v>55.75</v>
-      </c>
-      <c r="E63" s="3">
-        <v>11.5</v>
+      <c r="D63">
+        <v>55.711299630671199</v>
+      </c>
+      <c r="E63">
+        <v>11.6358364801001</v>
       </c>
       <c r="F63" s="6">
         <v>0</v>
@@ -2159,11 +2165,11 @@
       <c r="C64" s="3">
         <v>9.3800000000000008</v>
       </c>
-      <c r="D64" s="3">
-        <v>55.77</v>
-      </c>
-      <c r="E64" s="3">
-        <v>9.36</v>
+      <c r="D64">
+        <v>55.8344491603523</v>
+      </c>
+      <c r="E64">
+        <v>9.3213755805759995</v>
       </c>
       <c r="F64" s="6">
         <v>0</v>
@@ -2179,11 +2185,11 @@
       <c r="C65" s="3">
         <v>9.1289999999999996</v>
       </c>
-      <c r="D65" s="3">
-        <v>55.73</v>
-      </c>
-      <c r="E65" s="3">
-        <v>9.1300000000000008</v>
+      <c r="D65">
+        <v>55.839797883900502</v>
+      </c>
+      <c r="E65">
+        <v>9.28113358208814</v>
       </c>
       <c r="F65" s="6">
         <v>1</v>
@@ -2199,11 +2205,11 @@
       <c r="C66" s="3">
         <v>9.5350000000000001</v>
       </c>
-      <c r="D66" s="3">
-        <v>55.71</v>
-      </c>
-      <c r="E66" s="3">
-        <v>9.5500000000000007</v>
+      <c r="D66">
+        <v>55.748622796829501</v>
+      </c>
+      <c r="E66">
+        <v>9.58693901466334</v>
       </c>
       <c r="F66" s="6">
         <v>0</v>
@@ -2219,11 +2225,11 @@
       <c r="C67" s="3">
         <v>11.77</v>
       </c>
-      <c r="D67" s="3">
-        <v>55.7</v>
-      </c>
-      <c r="E67" s="3">
-        <v>11.78</v>
+      <c r="D67">
+        <v>55.675403941259198</v>
+      </c>
+      <c r="E67">
+        <v>11.746509460584599</v>
       </c>
       <c r="F67" s="6">
         <v>0</v>
@@ -2239,11 +2245,11 @@
       <c r="C68" s="3">
         <v>12.164</v>
       </c>
-      <c r="D68" s="3">
-        <v>55.65</v>
-      </c>
-      <c r="E68" s="3">
-        <v>12.18</v>
+      <c r="D68">
+        <v>55.595239950799503</v>
+      </c>
+      <c r="E68">
+        <v>12.2821272052119</v>
       </c>
       <c r="F68" s="6">
         <v>0</v>
@@ -2254,16 +2260,16 @@
         <v>57</v>
       </c>
       <c r="B69" s="3">
-        <v>55.65</v>
+        <v>55.650273346491304</v>
       </c>
       <c r="C69" s="3">
-        <v>12.079000000000001</v>
-      </c>
-      <c r="D69" s="3">
-        <v>55.64</v>
-      </c>
-      <c r="E69" s="3">
-        <v>12.04</v>
+        <v>12.0796784842838</v>
+      </c>
+      <c r="D69">
+        <v>55.625791634200297</v>
+      </c>
+      <c r="E69">
+        <v>12.096893688324601</v>
       </c>
       <c r="F69" s="6">
         <v>1</v>
@@ -2279,11 +2285,11 @@
       <c r="C70" s="3">
         <v>12.083</v>
       </c>
-      <c r="D70" s="3">
-        <v>55.63</v>
-      </c>
-      <c r="E70" s="3">
-        <v>12.06</v>
+      <c r="D70">
+        <v>55.646679524890899</v>
+      </c>
+      <c r="E70">
+        <v>12.1376988646069</v>
       </c>
       <c r="F70" s="6">
         <v>1</v>
@@ -2294,16 +2300,16 @@
         <v>137</v>
       </c>
       <c r="B71" s="3">
-        <v>55.63</v>
+        <v>55.6224375325341</v>
       </c>
       <c r="C71" s="3">
-        <v>11.69</v>
-      </c>
-      <c r="D71" s="3">
-        <v>55.64</v>
-      </c>
-      <c r="E71" s="3">
-        <v>11.68</v>
+        <v>11.671082368936601</v>
+      </c>
+      <c r="D71">
+        <v>55.658446116523599</v>
+      </c>
+      <c r="E71">
+        <v>11.684259941408801</v>
       </c>
       <c r="F71" s="6">
         <v>0</v>
@@ -2319,11 +2325,11 @@
       <c r="C72" s="3">
         <v>11.95</v>
       </c>
-      <c r="D72" s="3">
-        <v>55.59</v>
-      </c>
-      <c r="E72" s="3">
-        <v>11.95</v>
+      <c r="D72">
+        <v>55.646868298814503</v>
+      </c>
+      <c r="E72">
+        <v>11.932309395883699</v>
       </c>
       <c r="F72" s="6">
         <v>0</v>
@@ -2339,11 +2345,11 @@
       <c r="C73" s="3">
         <v>11.56</v>
       </c>
-      <c r="D73" s="3">
-        <v>55.6</v>
-      </c>
-      <c r="E73" s="3">
-        <v>11.54</v>
+      <c r="D73">
+        <v>55.458476105181497</v>
+      </c>
+      <c r="E73">
+        <v>11.5509769325941</v>
       </c>
       <c r="F73" s="6">
         <v>0</v>
@@ -2354,16 +2360,16 @@
         <v>135</v>
       </c>
       <c r="B74" s="3">
-        <v>55.59</v>
+        <v>55.606236517229398</v>
       </c>
       <c r="C74" s="3">
-        <v>12.39</v>
-      </c>
-      <c r="D74" s="3">
-        <v>55.6</v>
-      </c>
-      <c r="E74" s="3">
-        <v>12.35</v>
+        <v>12.388439361012599</v>
+      </c>
+      <c r="D74">
+        <v>55.621294443780897</v>
+      </c>
+      <c r="E74">
+        <v>12.348422680285699</v>
       </c>
       <c r="F74" s="6">
         <v>0</v>
@@ -2379,11 +2385,11 @@
       <c r="C75" s="3">
         <v>9.7560000000000002</v>
       </c>
-      <c r="D75" s="3">
-        <v>55.61</v>
-      </c>
-      <c r="E75" s="3">
-        <v>9.77</v>
+      <c r="D75">
+        <v>55.528470958961499</v>
+      </c>
+      <c r="E75">
+        <v>9.7242786543745297</v>
       </c>
       <c r="F75" s="6">
         <v>0</v>
@@ -2399,11 +2405,11 @@
       <c r="C76" s="3">
         <v>11.96</v>
       </c>
-      <c r="D76" s="3">
-        <v>55.6</v>
-      </c>
-      <c r="E76" s="3">
-        <v>11.91</v>
+      <c r="D76">
+        <v>55.626372502520802</v>
+      </c>
+      <c r="E76">
+        <v>12.052992810115301</v>
       </c>
       <c r="F76" s="6">
         <v>0</v>
@@ -2419,11 +2425,11 @@
       <c r="C77" s="3">
         <v>12.25</v>
       </c>
-      <c r="D77" s="3">
-        <v>55.56</v>
-      </c>
-      <c r="E77" s="3">
-        <v>12.24</v>
+      <c r="D77">
+        <v>55.579060385517799</v>
+      </c>
+      <c r="E77">
+        <v>12.2556385341269</v>
       </c>
       <c r="F77" s="6">
         <v>0</v>
@@ -2439,11 +2445,11 @@
       <c r="C78" s="3">
         <v>11.39</v>
       </c>
-      <c r="D78" s="3">
-        <v>55.45</v>
-      </c>
-      <c r="E78" s="3">
-        <v>11.4</v>
+      <c r="D78">
+        <v>55.414777374976197</v>
+      </c>
+      <c r="E78">
+        <v>11.411898960269999</v>
       </c>
       <c r="F78" s="6">
         <v>1</v>
@@ -2459,11 +2465,11 @@
       <c r="C79" s="3">
         <v>9.5050000000000008</v>
       </c>
-      <c r="D79" s="3">
-        <v>55.5</v>
-      </c>
-      <c r="E79" s="3">
-        <v>9.5</v>
+      <c r="D79">
+        <v>55.434860149355302</v>
+      </c>
+      <c r="E79">
+        <v>9.4590169032314293</v>
       </c>
       <c r="F79" s="6">
         <v>0</v>
@@ -2474,16 +2480,16 @@
         <v>44</v>
       </c>
       <c r="B80" s="3">
-        <v>55.512</v>
+        <v>55.511957373755699</v>
       </c>
       <c r="C80" s="3">
-        <v>9.7289999999999992</v>
-      </c>
-      <c r="D80" s="3">
-        <v>55.51</v>
-      </c>
-      <c r="E80" s="3">
-        <v>9.73</v>
+        <v>9.7003452717893808</v>
+      </c>
+      <c r="D80">
+        <v>55.491927200947401</v>
+      </c>
+      <c r="E80">
+        <v>9.8233302154358402</v>
       </c>
       <c r="F80" s="6">
         <v>0</v>
@@ -2499,11 +2505,11 @@
       <c r="C81" s="3">
         <v>9.7309999999999999</v>
       </c>
-      <c r="D81" s="3">
-        <v>55.51</v>
-      </c>
-      <c r="E81" s="3">
-        <v>9.73</v>
+      <c r="D81">
+        <v>55.510939959172603</v>
+      </c>
+      <c r="E81">
+        <v>9.7791971526952395</v>
       </c>
       <c r="F81" s="6">
         <v>0</v>
@@ -2519,11 +2525,11 @@
       <c r="C82" s="3">
         <v>12</v>
       </c>
-      <c r="D82" s="3">
-        <v>55.5</v>
-      </c>
-      <c r="E82" s="3">
-        <v>11.95</v>
+      <c r="D82">
+        <v>55.467939971445603</v>
+      </c>
+      <c r="E82">
+        <v>12.062090900129601</v>
       </c>
       <c r="F82" s="6">
         <v>0</v>
@@ -2539,11 +2545,11 @@
       <c r="C83" s="3">
         <v>9.5839999999999996</v>
       </c>
-      <c r="D83" s="3">
-        <v>55.51</v>
-      </c>
-      <c r="E83" s="3">
-        <v>9.5</v>
+      <c r="D83">
+        <v>55.537262434396297</v>
+      </c>
+      <c r="E83">
+        <v>9.5057416713598002</v>
       </c>
       <c r="F83" s="6">
         <v>1</v>
@@ -2559,11 +2565,11 @@
       <c r="C84" s="3">
         <v>9.74</v>
       </c>
-      <c r="D84" s="3">
-        <v>55.51</v>
-      </c>
-      <c r="E84" s="3">
-        <v>9.77</v>
+      <c r="D84">
+        <v>55.471148161042301</v>
+      </c>
+      <c r="E84">
+        <v>9.8946870477165891</v>
       </c>
       <c r="F84" s="6">
         <v>0</v>
@@ -2579,11 +2585,11 @@
       <c r="C85" s="3">
         <v>9.4749999999999996</v>
       </c>
-      <c r="D85" s="3">
-        <v>55.48</v>
-      </c>
-      <c r="E85" s="3">
-        <v>9.4600000000000009</v>
+      <c r="D85">
+        <v>55.462567395252698</v>
+      </c>
+      <c r="E85">
+        <v>9.4429707788740203</v>
       </c>
       <c r="F85" s="6">
         <v>1</v>
@@ -2593,17 +2599,17 @@
       <c r="A86" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="3">
-        <v>55.482999999999997</v>
-      </c>
-      <c r="C86" s="3">
-        <v>8.41</v>
-      </c>
-      <c r="D86" s="3">
-        <v>55.49</v>
-      </c>
-      <c r="E86" s="3">
-        <v>8.42</v>
+      <c r="B86">
+        <v>55.489667077238501</v>
+      </c>
+      <c r="C86">
+        <v>8.4119640883372195</v>
+      </c>
+      <c r="D86">
+        <v>55.516430628560002</v>
+      </c>
+      <c r="E86">
+        <v>8.5136022644112401</v>
       </c>
       <c r="F86" s="6">
         <v>0</v>
@@ -2619,11 +2625,11 @@
       <c r="C87" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D87" s="3">
-        <v>55.48</v>
-      </c>
-      <c r="E87" s="3">
-        <v>9.17</v>
+      <c r="D87">
+        <v>55.494059149835202</v>
+      </c>
+      <c r="E87">
+        <v>9.1382575448872405</v>
       </c>
       <c r="F87" s="6">
         <v>0</v>
@@ -2634,16 +2640,16 @@
         <v>53</v>
       </c>
       <c r="B88" s="3">
-        <v>55.473999999999997</v>
+        <v>55.531987246473101</v>
       </c>
       <c r="C88" s="3">
-        <v>11.89</v>
-      </c>
-      <c r="D88" s="3">
-        <v>55.46</v>
-      </c>
-      <c r="E88" s="3">
-        <v>11.8</v>
+        <v>11.849801207798899</v>
+      </c>
+      <c r="D88">
+        <v>55.454649086836199</v>
+      </c>
+      <c r="E88">
+        <v>11.8158896529036</v>
       </c>
       <c r="F88" s="6">
         <v>1</v>
@@ -2659,11 +2665,11 @@
       <c r="C89" s="3">
         <v>9.11</v>
       </c>
-      <c r="D89" s="3">
-        <v>55.47</v>
-      </c>
-      <c r="E89" s="3">
-        <v>9.09</v>
+      <c r="D89">
+        <v>55.503697666734602</v>
+      </c>
+      <c r="E89">
+        <v>9.02930069877136</v>
       </c>
       <c r="F89" s="6">
         <v>0</v>
@@ -2679,11 +2685,11 @@
       <c r="C90" s="3">
         <v>11.75</v>
       </c>
-      <c r="D90" s="3">
-        <v>55.46</v>
-      </c>
-      <c r="E90" s="3">
-        <v>11.77</v>
+      <c r="D90">
+        <v>55.456868094755499</v>
+      </c>
+      <c r="E90">
+        <v>11.777391342977801</v>
       </c>
       <c r="F90" s="6">
         <v>0</v>
@@ -2699,11 +2705,11 @@
       <c r="C91" s="3">
         <v>9.07</v>
       </c>
-      <c r="D91" s="3">
-        <v>55.33</v>
-      </c>
-      <c r="E91" s="3">
-        <v>8.74</v>
+      <c r="D91">
+        <v>55.521807028186998</v>
+      </c>
+      <c r="E91">
+        <v>8.9083622058330398</v>
       </c>
       <c r="F91" s="6">
         <v>0</v>
@@ -2719,11 +2725,11 @@
       <c r="C92" s="3">
         <v>11.458</v>
       </c>
-      <c r="D92" s="3">
-        <v>55.42</v>
-      </c>
-      <c r="E92" s="3">
-        <v>11.46</v>
+      <c r="D92">
+        <v>55.388308639384398</v>
+      </c>
+      <c r="E92">
+        <v>11.3549400805669</v>
       </c>
       <c r="F92" s="6">
         <v>0</v>
@@ -2739,11 +2745,11 @@
       <c r="C93" s="3">
         <v>10.635</v>
       </c>
-      <c r="D93" s="3">
-        <v>55.4</v>
-      </c>
-      <c r="E93" s="3">
-        <v>10.65</v>
+      <c r="D93">
+        <v>55.352277207549903</v>
+      </c>
+      <c r="E93">
+        <v>10.5717841399298</v>
       </c>
       <c r="F93" s="6">
         <v>1</v>
@@ -2759,11 +2765,11 @@
       <c r="C94" s="3">
         <v>10.53</v>
       </c>
-      <c r="D94" s="3">
-        <v>55.4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>10.65</v>
+      <c r="D94">
+        <v>55.352277207549903</v>
+      </c>
+      <c r="E94">
+        <v>10.5717841399298</v>
       </c>
       <c r="F94" s="6">
         <v>0</v>
@@ -2779,11 +2785,11 @@
       <c r="C95" s="3">
         <v>11.378</v>
       </c>
-      <c r="D95" s="3">
-        <v>55.41</v>
-      </c>
-      <c r="E95" s="3">
-        <v>11.38</v>
+      <c r="D95">
+        <v>55.366080534430999</v>
+      </c>
+      <c r="E95">
+        <v>11.266553041196699</v>
       </c>
       <c r="F95" s="6">
         <v>0</v>
@@ -2799,11 +2805,11 @@
       <c r="C96" s="3">
         <v>10.387</v>
       </c>
-      <c r="D96" s="3">
-        <v>55.38</v>
-      </c>
-      <c r="E96" s="3">
-        <v>10.42</v>
+      <c r="D96">
+        <v>55.348040950998502</v>
+      </c>
+      <c r="E96">
+        <v>10.4341271934963</v>
       </c>
       <c r="F96" s="6">
         <v>1</v>
@@ -2819,11 +2825,11 @@
       <c r="C97" s="3">
         <v>10.38</v>
       </c>
-      <c r="D97" s="3">
-        <v>55.38</v>
-      </c>
-      <c r="E97" s="3">
-        <v>10.34</v>
+      <c r="D97">
+        <v>55.386245803765398</v>
+      </c>
+      <c r="E97">
+        <v>10.2207537411863</v>
       </c>
       <c r="F97" s="6">
         <v>1</v>
@@ -2839,11 +2845,11 @@
       <c r="C98" s="3">
         <v>10.384</v>
       </c>
-      <c r="D98" s="3">
-        <v>55.38</v>
-      </c>
-      <c r="E98" s="3">
-        <v>10.36</v>
+      <c r="D98">
+        <v>55.359155061782502</v>
+      </c>
+      <c r="E98">
+        <v>10.3535465008207</v>
       </c>
       <c r="F98" s="6">
         <v>1</v>
@@ -2859,11 +2865,11 @@
       <c r="C99" s="3">
         <v>10.334</v>
       </c>
-      <c r="D99" s="3">
-        <v>55.38</v>
-      </c>
-      <c r="E99" s="3">
-        <v>10.42</v>
+      <c r="D99">
+        <v>55.365572638557701</v>
+      </c>
+      <c r="E99">
+        <v>10.525898889576</v>
       </c>
       <c r="F99" s="6">
         <v>0</v>
@@ -2879,11 +2885,11 @@
       <c r="C100" s="3">
         <v>10.37</v>
       </c>
-      <c r="D100" s="3">
-        <v>55.39</v>
-      </c>
-      <c r="E100" s="3">
-        <v>10.4</v>
+      <c r="D100">
+        <v>55.352084838587601</v>
+      </c>
+      <c r="E100">
+        <v>10.387535695064599</v>
       </c>
       <c r="F100" s="6">
         <v>0</v>
@@ -2899,11 +2905,11 @@
       <c r="C101" s="3">
         <v>10.15</v>
       </c>
-      <c r="D101" s="3">
-        <v>55.37</v>
-      </c>
-      <c r="E101" s="3">
-        <v>10.16</v>
+      <c r="D101">
+        <v>55.398716088410197</v>
+      </c>
+      <c r="E101">
+        <v>10.1686231938364</v>
       </c>
       <c r="F101" s="6">
         <v>0</v>
@@ -2919,11 +2925,11 @@
       <c r="C102" s="3">
         <v>10.37</v>
       </c>
-      <c r="D102" s="3">
-        <v>55.38</v>
-      </c>
-      <c r="E102" s="3">
-        <v>10.37</v>
+      <c r="D102">
+        <v>55.352084838587601</v>
+      </c>
+      <c r="E102">
+        <v>10.387535695064599</v>
       </c>
       <c r="F102" s="6">
         <v>1</v>
@@ -2939,11 +2945,11 @@
       <c r="C103" s="3">
         <v>9.4700000000000006</v>
       </c>
-      <c r="D103" s="3">
-        <v>55.35</v>
-      </c>
-      <c r="E103" s="3">
-        <v>9.49</v>
+      <c r="D103">
+        <v>55.366860664522299</v>
+      </c>
+      <c r="E103">
+        <v>9.4505889499428903</v>
       </c>
       <c r="F103" s="6">
         <v>0</v>
@@ -2959,11 +2965,11 @@
       <c r="C104" s="3">
         <v>11.138999999999999</v>
       </c>
-      <c r="D104" s="3">
-        <v>55.34</v>
-      </c>
-      <c r="E104" s="3">
-        <v>11.14</v>
+      <c r="D104">
+        <v>55.354211586724198</v>
+      </c>
+      <c r="E104">
+        <v>11.1494442969685</v>
       </c>
       <c r="F104" s="6">
         <v>0</v>
@@ -2974,16 +2980,16 @@
         <v>83</v>
       </c>
       <c r="B105" s="3">
-        <v>55.33</v>
+        <v>55.152141471545697</v>
       </c>
       <c r="C105" s="3">
-        <v>8.57</v>
-      </c>
-      <c r="D105" s="3">
-        <v>55.46</v>
-      </c>
-      <c r="E105" s="3">
-        <v>8.52</v>
+        <v>8.5505682310131395</v>
+      </c>
+      <c r="D105">
+        <v>55.521366089783299</v>
+      </c>
+      <c r="E105">
+        <v>8.5996600099187397</v>
       </c>
       <c r="F105" s="6">
         <v>0</v>
@@ -2999,11 +3005,11 @@
       <c r="C106" s="3">
         <v>8.76</v>
       </c>
-      <c r="D106" s="3">
-        <v>55.33</v>
-      </c>
-      <c r="E106" s="3">
-        <v>8.74</v>
+      <c r="D106">
+        <v>55.521807028186998</v>
+      </c>
+      <c r="E106">
+        <v>8.9083622058330398</v>
       </c>
       <c r="F106" s="6">
         <v>1</v>
@@ -3019,11 +3025,11 @@
       <c r="C107" s="3">
         <v>10.792999999999999</v>
       </c>
-      <c r="D107" s="3">
-        <v>55.31</v>
-      </c>
-      <c r="E107" s="3">
-        <v>10.76</v>
+      <c r="D107">
+        <v>55.305637430336603</v>
+      </c>
+      <c r="E107">
+        <v>10.820081325617</v>
       </c>
       <c r="F107" s="6">
         <v>0</v>
@@ -3039,11 +3045,11 @@
       <c r="C108" s="3">
         <v>8.657</v>
       </c>
-      <c r="D108" s="3">
-        <v>55.29</v>
-      </c>
-      <c r="E108" s="3">
-        <v>8.65</v>
+      <c r="D108">
+        <v>55.505653111481898</v>
+      </c>
+      <c r="E108">
+        <v>8.7088235589390397</v>
       </c>
       <c r="F108" s="6">
         <v>0</v>
@@ -3059,11 +3065,11 @@
       <c r="C109" s="3">
         <v>12.44</v>
       </c>
-      <c r="D109" s="3">
-        <v>55.3</v>
-      </c>
-      <c r="E109" s="3">
-        <v>12.15</v>
+      <c r="D109">
+        <v>55.455944211544498</v>
+      </c>
+      <c r="E109">
+        <v>12.121550600179599</v>
       </c>
       <c r="F109" s="6">
         <v>0</v>
@@ -3074,16 +3080,16 @@
         <v>93</v>
       </c>
       <c r="B110" s="3">
-        <v>55.25</v>
+        <v>55.2499470436641</v>
       </c>
       <c r="C110" s="3">
-        <v>9.48</v>
-      </c>
-      <c r="D110" s="3">
-        <v>55.26</v>
-      </c>
-      <c r="E110" s="3">
-        <v>9.49</v>
+        <v>9.4889937861912692</v>
+      </c>
+      <c r="D110">
+        <v>55.302519199561999</v>
+      </c>
+      <c r="E110">
+        <v>9.4309614937698303</v>
       </c>
       <c r="F110" s="6">
         <v>0</v>
@@ -3099,11 +3105,11 @@
       <c r="C111" s="3">
         <v>11.83</v>
       </c>
-      <c r="D111" s="3">
-        <v>55.25</v>
-      </c>
-      <c r="E111" s="3">
-        <v>11.83</v>
+      <c r="D111">
+        <v>55.344885143290298</v>
+      </c>
+      <c r="E111">
+        <v>12.051734961564501</v>
       </c>
       <c r="F111" s="6">
         <v>0</v>
@@ -3119,11 +3125,11 @@
       <c r="C112" s="3">
         <v>11.66</v>
       </c>
-      <c r="D112" s="3">
-        <v>55.25</v>
-      </c>
-      <c r="E112" s="3">
-        <v>11.67</v>
+      <c r="D112">
+        <v>55.257103896606303</v>
+      </c>
+      <c r="E112">
+        <v>11.9935430639771</v>
       </c>
       <c r="F112" s="6">
         <v>0</v>
@@ -3134,16 +3140,16 @@
         <v>120</v>
       </c>
       <c r="B113" s="3">
-        <v>55.23</v>
+        <v>55.2599968947317</v>
       </c>
       <c r="C113" s="3">
-        <v>12</v>
-      </c>
-      <c r="D113" s="3">
-        <v>55.23</v>
-      </c>
-      <c r="E113" s="3">
-        <v>11.95</v>
+        <v>11.9814695340181</v>
+      </c>
+      <c r="D113">
+        <v>55.284583892194597</v>
+      </c>
+      <c r="E113">
+        <v>12.0147169517801</v>
       </c>
       <c r="F113" s="6">
         <v>0</v>
@@ -3159,11 +3165,11 @@
       <c r="C114" s="3">
         <v>9.57</v>
       </c>
-      <c r="D114" s="3">
-        <v>55.23</v>
-      </c>
-      <c r="E114" s="3">
-        <v>9.58</v>
+      <c r="D114">
+        <v>55.250630030225899</v>
+      </c>
+      <c r="E114">
+        <v>9.4047143036937708</v>
       </c>
       <c r="F114" s="6">
         <v>0</v>
@@ -3179,11 +3185,11 @@
       <c r="C115" s="3">
         <v>10.47</v>
       </c>
-      <c r="D115" s="3">
-        <v>55.18</v>
-      </c>
-      <c r="E115" s="3">
-        <v>10.45</v>
+      <c r="D115">
+        <v>55.194239428249901</v>
+      </c>
+      <c r="E115">
+        <v>10.521811596221299</v>
       </c>
       <c r="F115" s="6">
         <v>1</v>
@@ -3199,11 +3205,11 @@
       <c r="C116" s="3">
         <v>11.79</v>
       </c>
-      <c r="D116" s="3">
-        <v>55.19</v>
-      </c>
-      <c r="E116" s="3">
-        <v>11.75</v>
+      <c r="D116">
+        <v>55.173291438901899</v>
+      </c>
+      <c r="E116">
+        <v>11.958658941066799</v>
       </c>
       <c r="F116" s="6">
         <v>0</v>
@@ -3219,11 +3225,11 @@
       <c r="C117" s="3">
         <v>11.75</v>
       </c>
-      <c r="D117" s="3">
-        <v>55.19</v>
-      </c>
-      <c r="E117" s="3">
-        <v>11.75</v>
+      <c r="D117">
+        <v>55.173291438901899</v>
+      </c>
+      <c r="E117">
+        <v>11.958658941066799</v>
       </c>
       <c r="F117" s="6">
         <v>0</v>
@@ -3239,11 +3245,11 @@
       <c r="C118" s="3">
         <v>12.08</v>
       </c>
-      <c r="D118" s="3">
-        <v>55.12</v>
-      </c>
-      <c r="E118" s="3">
-        <v>12.05</v>
+      <c r="D118">
+        <v>55.079583894118997</v>
+      </c>
+      <c r="E118">
+        <v>11.9553360460559</v>
       </c>
       <c r="F118" s="6">
         <v>0</v>
@@ -3259,11 +3265,11 @@
       <c r="C119" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="D119" s="3">
-        <v>55.11</v>
-      </c>
-      <c r="E119" s="3">
-        <v>10.210000000000001</v>
+      <c r="D119">
+        <v>55.311469148101303</v>
+      </c>
+      <c r="E119">
+        <v>10.437002940753899</v>
       </c>
       <c r="F119" s="6">
         <v>0</v>
@@ -3279,11 +3285,11 @@
       <c r="C120" s="3">
         <v>9.48</v>
       </c>
-      <c r="D120" s="3">
-        <v>55.09</v>
-      </c>
-      <c r="E120" s="3">
-        <v>9.4700000000000006</v>
+      <c r="D120">
+        <v>55.177860208956197</v>
+      </c>
+      <c r="E120">
+        <v>9.3720615800821001</v>
       </c>
       <c r="F120" s="6">
         <v>0</v>
@@ -3299,11 +3305,11 @@
       <c r="C121" s="3">
         <v>10.64</v>
       </c>
-      <c r="D121" s="3">
-        <v>55.07</v>
-      </c>
-      <c r="E121" s="3">
-        <v>10.63</v>
+      <c r="D121">
+        <v>55.119567952856698</v>
+      </c>
+      <c r="E121">
+        <v>10.5603861130051</v>
       </c>
       <c r="F121" s="6">
         <v>0</v>
@@ -3319,11 +3325,11 @@
       <c r="C122" s="3">
         <v>9.74</v>
       </c>
-      <c r="D122" s="3">
-        <v>55.04</v>
-      </c>
-      <c r="E122" s="3">
-        <v>9.75</v>
+      <c r="D122">
+        <v>54.9261740861104</v>
+      </c>
+      <c r="E122">
+        <v>9.7185397850498703</v>
       </c>
       <c r="F122" s="6">
         <v>0</v>
@@ -3334,16 +3340,16 @@
         <v>103</v>
       </c>
       <c r="B123" s="3">
-        <v>55.05</v>
+        <v>55.059269062151898</v>
       </c>
       <c r="C123" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="D123" s="3">
-        <v>55.05</v>
-      </c>
-      <c r="E123" s="3">
-        <v>10.28</v>
+        <v>10.6131846670587</v>
+      </c>
+      <c r="D123">
+        <v>55.239937479228402</v>
+      </c>
+      <c r="E123">
+        <v>10.4896567630903</v>
       </c>
       <c r="F123" s="6">
         <v>0</v>
@@ -3359,11 +3365,11 @@
       <c r="C124" s="3">
         <v>9.41</v>
       </c>
-      <c r="D124" s="3">
-        <v>55.06</v>
-      </c>
-      <c r="E124" s="3">
-        <v>9.44</v>
+      <c r="D124">
+        <v>54.988018952115397</v>
+      </c>
+      <c r="E124">
+        <v>9.3773965332206508</v>
       </c>
       <c r="F124" s="6">
         <v>0</v>
@@ -3379,11 +3385,11 @@
       <c r="C125" s="3">
         <v>9.7899999999999991</v>
       </c>
-      <c r="D125" s="3">
-        <v>55.03</v>
-      </c>
-      <c r="E125" s="3">
-        <v>9.77</v>
+      <c r="D125">
+        <v>54.920897557935398</v>
+      </c>
+      <c r="E125">
+        <v>9.7443220923189902</v>
       </c>
       <c r="F125" s="6">
         <v>1</v>
@@ -3399,11 +3405,11 @@
       <c r="C126" s="3">
         <v>10.61</v>
       </c>
-      <c r="D126" s="3">
-        <v>55.05</v>
-      </c>
-      <c r="E126" s="3">
-        <v>10.6</v>
+      <c r="D126">
+        <v>55.0774328705401</v>
+      </c>
+      <c r="E126">
+        <v>10.574370018665601</v>
       </c>
       <c r="F126" s="6">
         <v>0</v>
@@ -3419,11 +3425,11 @@
       <c r="C127" s="3">
         <v>11.9</v>
       </c>
-      <c r="D127" s="3">
-        <v>55</v>
-      </c>
-      <c r="E127" s="3">
-        <v>11.88</v>
+      <c r="D127">
+        <v>55.0065379793555</v>
+      </c>
+      <c r="E127">
+        <v>11.9889928560659</v>
       </c>
       <c r="F127" s="6">
         <v>1</v>
@@ -3439,11 +3445,11 @@
       <c r="C128" s="3">
         <v>10.69</v>
       </c>
-      <c r="D128" s="3">
-        <v>55</v>
-      </c>
-      <c r="E128" s="3">
-        <v>10.68</v>
+      <c r="D128">
+        <v>55.063145900389799</v>
+      </c>
+      <c r="E128">
+        <v>10.587491761189</v>
       </c>
       <c r="F128" s="6">
         <v>1</v>
@@ -3459,11 +3465,11 @@
       <c r="C129" s="3">
         <v>12.54</v>
       </c>
-      <c r="D129" s="3">
-        <v>54.98</v>
-      </c>
-      <c r="E129" s="3">
-        <v>12.4</v>
+      <c r="D129">
+        <v>54.9557618106438</v>
+      </c>
+      <c r="E129">
+        <v>11.991756009852701</v>
       </c>
       <c r="F129" s="6">
         <v>1</v>
@@ -3479,11 +3485,11 @@
       <c r="C130" s="3">
         <v>9.8699999999999992</v>
       </c>
-      <c r="D130" s="3">
-        <v>54.95</v>
-      </c>
-      <c r="E130" s="3">
-        <v>9.8000000000000007</v>
+      <c r="D130">
+        <v>54.952232890230597</v>
+      </c>
+      <c r="E130">
+        <v>9.5117173303343705</v>
       </c>
       <c r="F130" s="6">
         <v>0</v>
@@ -3499,11 +3505,11 @@
       <c r="C131" s="3">
         <v>12.27</v>
       </c>
-      <c r="D131" s="3">
-        <v>54.92</v>
-      </c>
-      <c r="E131" s="3">
-        <v>12.25</v>
+      <c r="D131">
+        <v>54.903491501214702</v>
+      </c>
+      <c r="E131">
+        <v>11.9250387134979</v>
       </c>
       <c r="F131" s="6">
         <v>0</v>
@@ -3514,16 +3520,16 @@
         <v>100</v>
       </c>
       <c r="B132" s="3">
-        <v>54.91</v>
+        <v>54.876207564489199</v>
       </c>
       <c r="C132" s="3">
-        <v>9.69</v>
-      </c>
-      <c r="D132" s="3">
-        <v>54.99</v>
-      </c>
-      <c r="E132" s="3">
-        <v>9.73</v>
+        <v>9.6575303567718809</v>
+      </c>
+      <c r="D132">
+        <v>54.954345491783798</v>
+      </c>
+      <c r="E132">
+        <v>9.6300580678025707</v>
       </c>
       <c r="F132" s="6">
         <v>0</v>
@@ -3539,11 +3545,11 @@
       <c r="C133" s="3">
         <v>9.27</v>
       </c>
-      <c r="D133" s="3">
-        <v>54.84</v>
-      </c>
-      <c r="E133" s="3">
-        <v>9.27</v>
+      <c r="D133">
+        <v>54.863456153378301</v>
+      </c>
+      <c r="E133">
+        <v>9.3680635806341908</v>
       </c>
       <c r="F133" s="6">
         <v>0</v>
@@ -3559,11 +3565,11 @@
       <c r="C134" s="3">
         <v>11.1</v>
       </c>
-      <c r="D134" s="3">
-        <v>54.8</v>
-      </c>
-      <c r="E134" s="3">
-        <v>11.2</v>
+      <c r="D134">
+        <v>54.719669267561997</v>
+      </c>
+      <c r="E134">
+        <v>11.431309386907699</v>
       </c>
       <c r="F134" s="6">
         <v>0</v>
@@ -3574,16 +3580,16 @@
         <v>131</v>
       </c>
       <c r="B135" s="3">
-        <v>54.79</v>
+        <v>54.811493992022399</v>
       </c>
       <c r="C135" s="3">
-        <v>11.53</v>
-      </c>
-      <c r="D135" s="3">
-        <v>54.8</v>
-      </c>
-      <c r="E135" s="3">
-        <v>11.52</v>
+        <v>11.510347300598299</v>
+      </c>
+      <c r="D135">
+        <v>54.786972673440197</v>
+      </c>
+      <c r="E135">
+        <v>11.576098273593001</v>
       </c>
       <c r="F135" s="6">
         <v>0</v>
@@ -3599,11 +3605,11 @@
       <c r="C136" s="3">
         <v>11.88</v>
       </c>
-      <c r="D136" s="3">
-        <v>54.79</v>
-      </c>
-      <c r="E136" s="3">
-        <v>11.86</v>
+      <c r="D136">
+        <v>54.828311504111298</v>
+      </c>
+      <c r="E136">
+        <v>11.749616770090499</v>
       </c>
       <c r="F136" s="6">
         <v>0</v>
@@ -3619,11 +3625,11 @@
       <c r="C137" s="3">
         <v>11.33</v>
       </c>
-      <c r="D137" s="3">
-        <v>54.77</v>
-      </c>
-      <c r="E137" s="3">
-        <v>11.32</v>
+      <c r="D137">
+        <v>54.665534941541402</v>
+      </c>
+      <c r="E137">
+        <v>11.3693622645856</v>
       </c>
       <c r="F137" s="6">
         <v>0</v>
@@ -3639,11 +3645,11 @@
       <c r="C138" s="3">
         <v>11.81</v>
       </c>
-      <c r="D138" s="3">
-        <v>54.77</v>
-      </c>
-      <c r="E138" s="3">
-        <v>11.8</v>
+      <c r="D138">
+        <v>54.795000494061902</v>
+      </c>
+      <c r="E138">
+        <v>11.660544995777</v>
       </c>
       <c r="F138" s="6">
         <v>1</v>
@@ -3654,19 +3660,19 @@
         <v>132</v>
       </c>
       <c r="B139" s="3">
-        <v>54.76</v>
+        <v>54.7728039290715</v>
       </c>
       <c r="C139" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="D139" s="3">
-        <v>54.76</v>
-      </c>
-      <c r="E139" s="3">
-        <v>11.5</v>
+        <v>11.5003275474894</v>
+      </c>
+      <c r="D139">
+        <v>54.780961439702402</v>
+      </c>
+      <c r="E139">
+        <v>11.4890730048634</v>
       </c>
       <c r="F139" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3674,16 +3680,16 @@
         <v>128</v>
       </c>
       <c r="B140" s="3">
-        <v>54.55</v>
+        <v>54.561139763018303</v>
       </c>
       <c r="C140" s="3">
-        <v>11.95</v>
-      </c>
-      <c r="D140" s="3">
-        <v>54.6</v>
-      </c>
-      <c r="E140" s="3">
-        <v>11.9</v>
+        <v>11.962963025697301</v>
+      </c>
+      <c r="D140">
+        <v>54.8645216073106</v>
+      </c>
+      <c r="E140">
+        <v>11.8597938129227</v>
       </c>
       <c r="F140" s="6">
         <v>0</v>

--- a/brown_signs.xlsx
+++ b/brown_signs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ozbek\Desktop\brown_signs_denmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C144814-12F8-4167-BF79-F062840A26E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B25A42-AADD-4F0F-9BCC-A56C0F6F1753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1A3F83CA-556E-4C31-A6BA-F78F2B7B4EED}"/>
   </bookViews>
@@ -478,19 +478,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -501,44 +495,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -548,29 +507,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,258 +829,262 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="5" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>57.740038832701998</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>10.5961946483989</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>57.431761481265902</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>10.5296638118365</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>57.587331086454199</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>9.9845214028583094</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3">
         <v>57.573185269355797</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3">
         <v>10.000465998351901</v>
       </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>57.407168236193499</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>10.019764511544301</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4">
         <v>57.418973206030998</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4">
         <v>10.0291509446332</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>57.41</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>10.51</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>57.376792939036903</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>10.5044412604309</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>57.34</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>9.77</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>57.3584673055108</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6">
         <v>10.029379609949601</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>57.174999999999997</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>10.27</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>57.2470180636668</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>10.325407540665701</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>57.146999999999998</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>9.69</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>57.197781406415899</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>9.9335105406636703</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>57.14</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>10.32</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>57.165319955585197</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>10.1862237271719</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>57.1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>9.77</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>57.247566866366803</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10">
         <v>9.9730552695022396</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>57.061999999999998</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>9.9139999999999997</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>57.067395297684001</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>9.9502743713506501</v>
       </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>57.042499999999997</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>9.9130000000000003</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>57.030231552493099</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12">
         <v>9.9719391848395595</v>
       </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>57.04</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>9.8970000000000002</v>
       </c>
       <c r="D13">
@@ -1151,18 +1093,18 @@
       <c r="E13">
         <v>9.9084855406557804</v>
       </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>56.958577820967101</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>8.3683971062504696</v>
       </c>
       <c r="D14">
@@ -1171,18 +1113,18 @@
       <c r="E14">
         <v>8.6638202637209591</v>
       </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>56.884999999999998</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>10.220000000000001</v>
       </c>
       <c r="D15">
@@ -1191,18 +1133,18 @@
       <c r="E15">
         <v>9.8679879105234303</v>
       </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>56.837000000000003</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>9.84</v>
       </c>
       <c r="D16">
@@ -1211,18 +1153,18 @@
       <c r="E16">
         <v>9.8010418125597401</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>56.804000000000002</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>9.5180000000000007</v>
       </c>
       <c r="D17">
@@ -1231,18 +1173,18 @@
       <c r="E17">
         <v>9.7281597215774607</v>
       </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>56.78</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>9.94</v>
       </c>
       <c r="D18">
@@ -1251,18 +1193,18 @@
       <c r="E18">
         <v>9.7001259155201893</v>
       </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>56.643000000000001</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>10.023999999999999</v>
       </c>
       <c r="D19">
@@ -1271,18 +1213,18 @@
       <c r="E19">
         <v>9.82069923643596</v>
       </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>56.634999999999998</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>9.7899999999999991</v>
       </c>
       <c r="D20">
@@ -1291,18 +1233,18 @@
       <c r="E20">
         <v>9.7331838921158695</v>
       </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>56.551000000000002</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>9.5489999999999995</v>
       </c>
       <c r="D21">
@@ -1311,18 +1253,18 @@
       <c r="E21">
         <v>9.7760577874907</v>
       </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>56.54</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>9.84</v>
       </c>
       <c r="D22">
@@ -1331,18 +1273,18 @@
       <c r="E22">
         <v>9.9077597468347793</v>
       </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>56.466999999999999</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>8.7989999999999995</v>
       </c>
       <c r="D23">
@@ -1351,18 +1293,18 @@
       <c r="E23">
         <v>8.7274962501697697</v>
       </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>56.462000000000003</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>10.038</v>
       </c>
       <c r="D24">
@@ -1371,18 +1313,18 @@
       <c r="E24">
         <v>9.9807931316331295</v>
       </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>56.462000000000003</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>10.039999999999999</v>
       </c>
       <c r="D25">
@@ -1391,18 +1333,18 @@
       <c r="E25">
         <v>9.9863009050944491</v>
       </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>56.402000000000001</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>10.353999999999999</v>
       </c>
       <c r="D26">
@@ -1411,18 +1353,18 @@
       <c r="E26">
         <v>10.1221776343592</v>
       </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>56.36</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>9.8800000000000008</v>
       </c>
       <c r="D27">
@@ -1431,18 +1373,18 @@
       <c r="E27">
         <v>10.041782663205799</v>
       </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>56.354999999999997</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>10.51</v>
       </c>
       <c r="D28">
@@ -1451,18 +1393,18 @@
       <c r="E28">
         <v>10.0799316398743</v>
       </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>56.2835042606144</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>10.4792092372148</v>
       </c>
       <c r="D29">
@@ -1471,18 +1413,18 @@
       <c r="E29">
         <v>10.331197124987799</v>
       </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>56.16</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>10.191000000000001</v>
       </c>
       <c r="D30">
@@ -1491,18 +1433,18 @@
       <c r="E30">
         <v>10.0700154275945</v>
       </c>
-      <c r="F30" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>56.16</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>9.4700000000000006</v>
       </c>
       <c r="D31">
@@ -1511,18 +1453,18 @@
       <c r="E31">
         <v>9.6484028739488892</v>
       </c>
-      <c r="F31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>56.16</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>9.5399999999999991</v>
       </c>
       <c r="D32">
@@ -1531,18 +1473,18 @@
       <c r="E32">
         <v>9.6065326261687005</v>
       </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>56.16</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>9.5399999999999991</v>
       </c>
       <c r="D33">
@@ -1551,18 +1493,18 @@
       <c r="E33">
         <v>9.5559301810845696</v>
       </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>56.169058145055601</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>9.5532160580482799</v>
       </c>
       <c r="D34">
@@ -1571,18 +1513,18 @@
       <c r="E34">
         <v>9.5177777357883393</v>
       </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
         <v>56.153919000000002</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>10.199548</v>
       </c>
       <c r="D35">
@@ -1591,18 +1533,18 @@
       <c r="E35">
         <v>10.1473619179874</v>
       </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>56.14</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>8.98</v>
       </c>
       <c r="D36">
@@ -1611,18 +1553,18 @@
       <c r="E36">
         <v>9.0127334557438399</v>
       </c>
-      <c r="F36" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>56.13</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>8.9700000000000006</v>
       </c>
       <c r="D37">
@@ -1631,19 +1573,19 @@
       <c r="E37">
         <v>9.0549594879943296</v>
       </c>
-      <c r="F37" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="3">
-        <v>56.113</v>
-      </c>
-      <c r="C38" s="3">
-        <v>9.702</v>
+      <c r="B38">
+        <v>56.103148389155997</v>
+      </c>
+      <c r="C38">
+        <v>9.6860731807387701</v>
       </c>
       <c r="D38">
         <v>56.0419549822292</v>
@@ -1651,18 +1593,18 @@
       <c r="E38">
         <v>9.8971156826716999</v>
       </c>
-      <c r="F38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>56.139309137418003</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>9.6311473911081702</v>
       </c>
       <c r="D39">
@@ -1671,18 +1613,18 @@
       <c r="E39">
         <v>9.8822494396144496</v>
       </c>
-      <c r="F39" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="3">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
         <v>56.088850000000001</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>10.22354</v>
       </c>
       <c r="D40">
@@ -1691,19 +1633,19 @@
       <c r="E40">
         <v>10.0763220917512</v>
       </c>
-      <c r="F40" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="3">
-        <v>56.039403893593501</v>
-      </c>
-      <c r="C41" s="3">
-        <v>12.622367626626099</v>
+      <c r="B41">
+        <v>56.040338848047</v>
+      </c>
+      <c r="C41">
+        <v>12.615125661971501</v>
       </c>
       <c r="D41">
         <v>56.029100002111598</v>
@@ -1711,18 +1653,18 @@
       <c r="E41">
         <v>12.5975728864987</v>
       </c>
-      <c r="F41" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>111</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>56.039117767838</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>12.6167537149914</v>
       </c>
       <c r="D42">
@@ -1731,18 +1673,18 @@
       <c r="E42">
         <v>12.522471972384499</v>
       </c>
-      <c r="F42" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>56.034999999999997</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>9.8350000000000009</v>
       </c>
       <c r="D43">
@@ -1751,18 +1693,18 @@
       <c r="E43">
         <v>9.8643774392803198</v>
       </c>
-      <c r="F43" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>56.03</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>9.85</v>
       </c>
       <c r="D44">
@@ -1771,18 +1713,18 @@
       <c r="E44">
         <v>9.8294768576320397</v>
       </c>
-      <c r="F44" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>56.026000000000003</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>9.4239999999999995</v>
       </c>
       <c r="D45">
@@ -1791,18 +1733,18 @@
       <c r="E45">
         <v>9.5758123480828008</v>
       </c>
-      <c r="F45" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>56.02</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>9.3000000000000007</v>
       </c>
       <c r="D46">
@@ -1811,18 +1753,18 @@
       <c r="E46">
         <v>9.3624971611360905</v>
       </c>
-      <c r="F46" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>56</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>8.1199999999999992</v>
       </c>
       <c r="D47">
@@ -1831,18 +1773,18 @@
       <c r="E47">
         <v>8.8722737131514204</v>
       </c>
-      <c r="F47" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>56</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <v>12.18</v>
       </c>
       <c r="D48">
@@ -1851,18 +1793,18 @@
       <c r="E48">
         <v>12.5098094040984</v>
       </c>
-      <c r="F48" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>55.985999999999997</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>9.5120000000000005</v>
       </c>
       <c r="D49">
@@ -1871,18 +1813,18 @@
       <c r="E49">
         <v>9.8185910389796192</v>
       </c>
-      <c r="F49" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>55.97</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <v>12.54</v>
       </c>
       <c r="D50">
@@ -1891,18 +1833,18 @@
       <c r="E50">
         <v>12.487842920977901</v>
       </c>
-      <c r="F50" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>55.97</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51">
         <v>12.5</v>
       </c>
       <c r="D51">
@@ -1911,18 +1853,18 @@
       <c r="E51">
         <v>12.4792417437314</v>
       </c>
-      <c r="F51" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>55.97</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52">
         <v>12.39</v>
       </c>
       <c r="D52">
@@ -1931,18 +1873,18 @@
       <c r="E52">
         <v>12.473478581533</v>
       </c>
-      <c r="F52" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>55.935000000000002</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53">
         <v>9.1760000000000002</v>
       </c>
       <c r="D53">
@@ -1951,18 +1893,18 @@
       <c r="E53">
         <v>9.0312340195612801</v>
       </c>
-      <c r="F53" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>55.92</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54">
         <v>12.3</v>
       </c>
       <c r="D54">
@@ -1971,18 +1913,18 @@
       <c r="E54">
         <v>12.2724124010608</v>
       </c>
-      <c r="F54" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>55.917999999999999</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55">
         <v>9.1449999999999996</v>
       </c>
       <c r="D55">
@@ -1991,18 +1933,18 @@
       <c r="E55">
         <v>9.1040037053892</v>
       </c>
-      <c r="F55" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>55.908000000000001</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56">
         <v>9.3780000000000001</v>
       </c>
       <c r="D56">
@@ -2011,18 +1953,18 @@
       <c r="E56">
         <v>9.5264635024965205</v>
       </c>
-      <c r="F56" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>55.89</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57">
         <v>9.1240000000000006</v>
       </c>
       <c r="D57">
@@ -2031,18 +1973,18 @@
       <c r="E57">
         <v>9.1581843046170697</v>
       </c>
-      <c r="F57" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>55.88</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58">
         <v>12.53</v>
       </c>
       <c r="D58">
@@ -2051,18 +1993,18 @@
       <c r="E58">
         <v>12.482710723618601</v>
       </c>
-      <c r="F58" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59">
         <v>55.866999999999997</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59">
         <v>9.907</v>
       </c>
       <c r="D59">
@@ -2071,18 +2013,18 @@
       <c r="E59">
         <v>9.7870097765780599</v>
       </c>
-      <c r="F59" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60">
         <v>55.82</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60">
         <v>12.4</v>
       </c>
       <c r="D60">
@@ -2091,18 +2033,18 @@
       <c r="E60">
         <v>12.5310257728644</v>
       </c>
-      <c r="F60" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>55.79</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61">
         <v>9.23</v>
       </c>
       <c r="D61">
@@ -2111,18 +2053,18 @@
       <c r="E61">
         <v>9.2595434361303308</v>
       </c>
-      <c r="F61" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>109</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>55.79</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62">
         <v>12.48</v>
       </c>
       <c r="D62">
@@ -2131,18 +2073,18 @@
       <c r="E62">
         <v>12.4880710061977</v>
       </c>
-      <c r="F62" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63">
         <v>55.77</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63">
         <v>11.39</v>
       </c>
       <c r="D63">
@@ -2151,18 +2093,18 @@
       <c r="E63">
         <v>11.6358364801001</v>
       </c>
-      <c r="F63" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>55.76</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64">
         <v>9.3800000000000008</v>
       </c>
       <c r="D64">
@@ -2171,18 +2113,18 @@
       <c r="E64">
         <v>9.3213755805759995</v>
       </c>
-      <c r="F64" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65">
         <v>55.735999999999997</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65">
         <v>9.1289999999999996</v>
       </c>
       <c r="D65">
@@ -2191,18 +2133,18 @@
       <c r="E65">
         <v>9.28113358208814</v>
       </c>
-      <c r="F65" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66">
         <v>55.707000000000001</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66">
         <v>9.5350000000000001</v>
       </c>
       <c r="D66">
@@ -2211,18 +2153,18 @@
       <c r="E66">
         <v>9.58693901466334</v>
       </c>
-      <c r="F66" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67">
         <v>55.698</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67">
         <v>11.77</v>
       </c>
       <c r="D67">
@@ -2231,19 +2173,19 @@
       <c r="E67">
         <v>11.746509460584599</v>
       </c>
-      <c r="F67" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="3">
-        <v>55.658000000000001</v>
-      </c>
-      <c r="C68" s="3">
-        <v>12.164</v>
+      <c r="B68">
+        <v>55.6227068285068</v>
+      </c>
+      <c r="C68">
+        <v>12.185916499794899</v>
       </c>
       <c r="D68">
         <v>55.595239950799503</v>
@@ -2251,18 +2193,18 @@
       <c r="E68">
         <v>12.2821272052119</v>
       </c>
-      <c r="F68" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69">
         <v>55.650273346491304</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69">
         <v>12.0796784842838</v>
       </c>
       <c r="D69">
@@ -2271,18 +2213,18 @@
       <c r="E69">
         <v>12.096893688324601</v>
       </c>
-      <c r="F69" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>56</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70">
         <v>55.642000000000003</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70">
         <v>12.083</v>
       </c>
       <c r="D70">
@@ -2291,18 +2233,18 @@
       <c r="E70">
         <v>12.1376988646069</v>
       </c>
-      <c r="F70" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71">
         <v>55.6224375325341</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71">
         <v>11.671082368936601</v>
       </c>
       <c r="D71">
@@ -2311,18 +2253,18 @@
       <c r="E71">
         <v>11.684259941408801</v>
       </c>
-      <c r="F71" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72">
         <v>55.6</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72">
         <v>11.95</v>
       </c>
       <c r="D72">
@@ -2331,18 +2273,18 @@
       <c r="E72">
         <v>11.932309395883699</v>
       </c>
-      <c r="F72" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>51</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73">
         <v>55.59</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73">
         <v>11.56</v>
       </c>
       <c r="D73">
@@ -2351,18 +2293,18 @@
       <c r="E73">
         <v>11.5509769325941</v>
       </c>
-      <c r="F73" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>135</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74">
         <v>55.606236517229398</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74">
         <v>12.388439361012599</v>
       </c>
       <c r="D74">
@@ -2371,18 +2313,18 @@
       <c r="E74">
         <v>12.348422680285699</v>
       </c>
-      <c r="F74" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75">
         <v>55.58</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75">
         <v>9.7560000000000002</v>
       </c>
       <c r="D75">
@@ -2391,18 +2333,18 @@
       <c r="E75">
         <v>9.7242786543745297</v>
       </c>
-      <c r="F75" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>58</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76">
         <v>55.58</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76">
         <v>11.96</v>
       </c>
       <c r="D76">
@@ -2411,18 +2353,18 @@
       <c r="E76">
         <v>12.052992810115301</v>
       </c>
-      <c r="F76" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77">
         <v>55.56</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77">
         <v>12.25</v>
       </c>
       <c r="D77">
@@ -2431,18 +2373,18 @@
       <c r="E77">
         <v>12.2556385341269</v>
       </c>
-      <c r="F77" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>50</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78">
         <v>55.53</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78">
         <v>11.39</v>
       </c>
       <c r="D78">
@@ -2451,18 +2393,18 @@
       <c r="E78">
         <v>11.411898960269999</v>
       </c>
-      <c r="F78" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79">
         <v>55.517000000000003</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79">
         <v>9.5050000000000008</v>
       </c>
       <c r="D79">
@@ -2471,18 +2413,18 @@
       <c r="E79">
         <v>9.4590169032314293</v>
       </c>
-      <c r="F79" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>44</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80">
         <v>55.511957373755699</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80">
         <v>9.7003452717893808</v>
       </c>
       <c r="D80">
@@ -2491,18 +2433,18 @@
       <c r="E80">
         <v>9.8233302154358402</v>
       </c>
-      <c r="F80" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>45</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81">
         <v>55.509</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81">
         <v>9.7309999999999999</v>
       </c>
       <c r="D81">
@@ -2511,18 +2453,18 @@
       <c r="E81">
         <v>9.7791971526952395</v>
       </c>
-      <c r="F81" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>54</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82">
         <v>55.5</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82">
         <v>12</v>
       </c>
       <c r="D82">
@@ -2531,18 +2473,18 @@
       <c r="E82">
         <v>12.062090900129601</v>
       </c>
-      <c r="F82" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83">
         <v>55.497999999999998</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83">
         <v>9.5839999999999996</v>
       </c>
       <c r="D83">
@@ -2551,18 +2493,18 @@
       <c r="E83">
         <v>9.5057416713598002</v>
       </c>
-      <c r="F83" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>140</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84">
         <v>55.49</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84">
         <v>9.74</v>
       </c>
       <c r="D84">
@@ -2571,18 +2513,18 @@
       <c r="E84">
         <v>9.8946870477165891</v>
       </c>
-      <c r="F84" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85">
         <v>55.484000000000002</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85">
         <v>9.4749999999999996</v>
       </c>
       <c r="D85">
@@ -2591,12 +2533,12 @@
       <c r="E85">
         <v>9.4429707788740203</v>
       </c>
-      <c r="F85" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>82</v>
       </c>
       <c r="B86">
@@ -2611,19 +2553,19 @@
       <c r="E86">
         <v>8.5136022644112401</v>
       </c>
-      <c r="F86" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="3">
-        <v>55.48</v>
-      </c>
-      <c r="C87" s="3">
-        <v>9.1999999999999993</v>
+      <c r="B87">
+        <v>55.477386617746298</v>
+      </c>
+      <c r="C87">
+        <v>9.1407376321710405</v>
       </c>
       <c r="D87">
         <v>55.494059149835202</v>
@@ -2631,18 +2573,18 @@
       <c r="E87">
         <v>9.1382575448872405</v>
       </c>
-      <c r="F87" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>53</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88">
         <v>55.531987246473101</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88">
         <v>11.849801207798899</v>
       </c>
       <c r="D88">
@@ -2651,18 +2593,18 @@
       <c r="E88">
         <v>11.8158896529036</v>
       </c>
-      <c r="F88" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89">
         <v>55.46</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89">
         <v>9.11</v>
       </c>
       <c r="D89">
@@ -2671,18 +2613,18 @@
       <c r="E89">
         <v>9.02930069877136</v>
       </c>
-      <c r="F89" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>52</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90">
         <v>55.45</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90">
         <v>11.75</v>
       </c>
       <c r="D90">
@@ -2691,18 +2633,18 @@
       <c r="E90">
         <v>11.777391342977801</v>
       </c>
-      <c r="F90" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>86</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91">
         <v>55.44</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91">
         <v>9.07</v>
       </c>
       <c r="D91">
@@ -2711,18 +2653,18 @@
       <c r="E91">
         <v>8.9083622058330398</v>
       </c>
-      <c r="F91" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>49</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92">
         <v>55.433999999999997</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92">
         <v>11.458</v>
       </c>
       <c r="D92">
@@ -2731,18 +2673,18 @@
       <c r="E92">
         <v>11.3549400805669</v>
       </c>
-      <c r="F92" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>35</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93">
         <v>55.433</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93">
         <v>10.635</v>
       </c>
       <c r="D93">
@@ -2751,18 +2693,18 @@
       <c r="E93">
         <v>10.5717841399298</v>
       </c>
-      <c r="F93" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>36</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94">
         <v>55.42</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94">
         <v>10.53</v>
       </c>
       <c r="D94">
@@ -2771,18 +2713,18 @@
       <c r="E94">
         <v>10.5717841399298</v>
       </c>
-      <c r="F94" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>48</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95">
         <v>55.405000000000001</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95">
         <v>11.378</v>
       </c>
       <c r="D95">
@@ -2791,18 +2733,18 @@
       <c r="E95">
         <v>11.266553041196699</v>
       </c>
-      <c r="F95" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>38</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96">
         <v>55.398000000000003</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96">
         <v>10.387</v>
       </c>
       <c r="D96">
@@ -2811,18 +2753,18 @@
       <c r="E96">
         <v>10.4341271934963</v>
       </c>
-      <c r="F96" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>42</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>55.393999999999998</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97">
         <v>10.38</v>
       </c>
       <c r="D97">
@@ -2831,18 +2773,18 @@
       <c r="E97">
         <v>10.2207537411863</v>
       </c>
-      <c r="F97" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>55.393000000000001</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98">
         <v>10.384</v>
       </c>
       <c r="D98">
@@ -2851,18 +2793,18 @@
       <c r="E98">
         <v>10.3535465008207</v>
       </c>
-      <c r="F98" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>37</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>55.384999999999998</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99">
         <v>10.334</v>
       </c>
       <c r="D99">
@@ -2871,18 +2813,18 @@
       <c r="E99">
         <v>10.525898889576</v>
       </c>
-      <c r="F99" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>39</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>55.378</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100">
         <v>10.37</v>
       </c>
       <c r="D100">
@@ -2891,18 +2833,18 @@
       <c r="E100">
         <v>10.387535695064599</v>
       </c>
-      <c r="F100" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>43</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>55.37</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101">
         <v>10.15</v>
       </c>
       <c r="D101">
@@ -2911,18 +2853,18 @@
       <c r="E101">
         <v>10.1686231938364</v>
       </c>
-      <c r="F101" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>55.362000000000002</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102">
         <v>10.37</v>
       </c>
       <c r="D102">
@@ -2931,18 +2873,18 @@
       <c r="E102">
         <v>10.387535695064599</v>
       </c>
-      <c r="F102" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>92</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>55.34</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103">
         <v>9.4700000000000006</v>
       </c>
       <c r="D103">
@@ -2951,18 +2893,18 @@
       <c r="E103">
         <v>9.4505889499428903</v>
       </c>
-      <c r="F103" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>47</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104">
         <v>55.337000000000003</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104">
         <v>11.138999999999999</v>
       </c>
       <c r="D104">
@@ -2971,18 +2913,18 @@
       <c r="E104">
         <v>11.1494442969685</v>
       </c>
-      <c r="F104" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>83</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105">
         <v>55.152141471545697</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105">
         <v>8.5505682310131395</v>
       </c>
       <c r="D105">
@@ -2991,18 +2933,18 @@
       <c r="E105">
         <v>8.5996600099187397</v>
       </c>
-      <c r="F105" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>85</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106">
         <v>55.32</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106">
         <v>8.76</v>
       </c>
       <c r="D106">
@@ -3011,18 +2953,18 @@
       <c r="E106">
         <v>8.9083622058330398</v>
       </c>
-      <c r="F106" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>34</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107">
         <v>55.308999999999997</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107">
         <v>10.792999999999999</v>
       </c>
       <c r="D107">
@@ -3031,18 +2973,18 @@
       <c r="E107">
         <v>10.820081325617</v>
       </c>
-      <c r="F107" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108">
         <v>55.295000000000002</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108">
         <v>8.657</v>
       </c>
       <c r="D108">
@@ -3051,19 +2993,19 @@
       <c r="E108">
         <v>8.7088235589390397</v>
       </c>
-      <c r="F108" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>118</v>
       </c>
-      <c r="B109" s="3">
-        <v>55.26</v>
-      </c>
-      <c r="C109" s="3">
-        <v>12.44</v>
+      <c r="B109">
+        <v>55.2795843946056</v>
+      </c>
+      <c r="C109">
+        <v>12.443842325481899</v>
       </c>
       <c r="D109">
         <v>55.455944211544498</v>
@@ -3071,18 +3013,18 @@
       <c r="E109">
         <v>12.121550600179599</v>
       </c>
-      <c r="F109" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>93</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110">
         <v>55.2499470436641</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110">
         <v>9.4889937861912692</v>
       </c>
       <c r="D110">
@@ -3091,18 +3033,18 @@
       <c r="E110">
         <v>9.4309614937698303</v>
       </c>
-      <c r="F110" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>119</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111">
         <v>55.25</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111">
         <v>11.83</v>
       </c>
       <c r="D111">
@@ -3111,19 +3053,19 @@
       <c r="E111">
         <v>12.051734961564501</v>
       </c>
-      <c r="F111" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>121</v>
       </c>
-      <c r="B112" s="3">
-        <v>55.25</v>
-      </c>
-      <c r="C112" s="3">
-        <v>11.66</v>
+      <c r="B112">
+        <v>55.260983019759699</v>
+      </c>
+      <c r="C112">
+        <v>11.8636497959032</v>
       </c>
       <c r="D112">
         <v>55.257103896606303</v>
@@ -3131,18 +3073,18 @@
       <c r="E112">
         <v>11.9935430639771</v>
       </c>
-      <c r="F112" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>120</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113">
         <v>55.2599968947317</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113">
         <v>11.9814695340181</v>
       </c>
       <c r="D113">
@@ -3151,18 +3093,18 @@
       <c r="E113">
         <v>12.0147169517801</v>
       </c>
-      <c r="F113" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>94</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114">
         <v>55.22</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114">
         <v>9.57</v>
       </c>
       <c r="D114">
@@ -3171,18 +3113,18 @@
       <c r="E114">
         <v>9.4047143036937708</v>
       </c>
-      <c r="F114" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>104</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115">
         <v>55.19</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115">
         <v>10.47</v>
       </c>
       <c r="D115">
@@ -3191,18 +3133,18 @@
       <c r="E115">
         <v>10.521811596221299</v>
       </c>
-      <c r="F115" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>123</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116">
         <v>55.19</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116">
         <v>11.79</v>
       </c>
       <c r="D116">
@@ -3211,18 +3153,18 @@
       <c r="E116">
         <v>11.958658941066799</v>
       </c>
-      <c r="F116" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117">
         <v>55.16</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117">
         <v>11.75</v>
       </c>
       <c r="D117">
@@ -3231,18 +3173,18 @@
       <c r="E117">
         <v>11.958658941066799</v>
       </c>
-      <c r="F117" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>124</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118">
         <v>55.12</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118">
         <v>12.08</v>
       </c>
       <c r="D118">
@@ -3251,18 +3193,18 @@
       <c r="E118">
         <v>11.9553360460559</v>
       </c>
-      <c r="F118" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>102</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119">
         <v>55.1</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119">
         <v>10.199999999999999</v>
       </c>
       <c r="D119">
@@ -3271,18 +3213,18 @@
       <c r="E119">
         <v>10.437002940753899</v>
       </c>
-      <c r="F119" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>95</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120">
         <v>55.08</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120">
         <v>9.48</v>
       </c>
       <c r="D120">
@@ -3291,18 +3233,18 @@
       <c r="E120">
         <v>9.3720615800821001</v>
       </c>
-      <c r="F120" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>105</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121">
         <v>55.06</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121">
         <v>10.64</v>
       </c>
       <c r="D121">
@@ -3311,18 +3253,18 @@
       <c r="E121">
         <v>10.5603861130051</v>
       </c>
-      <c r="F121" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>99</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122">
         <v>55.05</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122">
         <v>9.74</v>
       </c>
       <c r="D122">
@@ -3331,18 +3273,18 @@
       <c r="E122">
         <v>9.7185397850498703</v>
       </c>
-      <c r="F122" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>103</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123">
         <v>55.059269062151898</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123">
         <v>10.6131846670587</v>
       </c>
       <c r="D123">
@@ -3351,18 +3293,18 @@
       <c r="E123">
         <v>10.4896567630903</v>
       </c>
-      <c r="F123" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>96</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124">
         <v>55.04</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124">
         <v>9.41</v>
       </c>
       <c r="D124">
@@ -3371,18 +3313,18 @@
       <c r="E124">
         <v>9.3773965332206508</v>
       </c>
-      <c r="F124" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>98</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125">
         <v>55.04</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125">
         <v>9.7899999999999991</v>
       </c>
       <c r="D125">
@@ -3391,18 +3333,18 @@
       <c r="E125">
         <v>9.7443220923189902</v>
       </c>
-      <c r="F125" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>106</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126">
         <v>55.04</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126">
         <v>10.61</v>
       </c>
       <c r="D126">
@@ -3411,18 +3353,18 @@
       <c r="E126">
         <v>10.574370018665601</v>
       </c>
-      <c r="F126" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127">
         <v>55</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127">
         <v>11.9</v>
       </c>
       <c r="D127">
@@ -3431,18 +3373,18 @@
       <c r="E127">
         <v>11.9889928560659</v>
       </c>
-      <c r="F127" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>107</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128">
         <v>54.99</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128">
         <v>10.69</v>
       </c>
       <c r="D128">
@@ -3451,18 +3393,18 @@
       <c r="E128">
         <v>10.587491761189</v>
       </c>
-      <c r="F128" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>126</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129">
         <v>54.96</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129">
         <v>12.54</v>
       </c>
       <c r="D129">
@@ -3471,18 +3413,18 @@
       <c r="E129">
         <v>11.991756009852701</v>
       </c>
-      <c r="F129" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>101</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130">
         <v>54.93</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130">
         <v>9.8699999999999992</v>
       </c>
       <c r="D130">
@@ -3491,19 +3433,19 @@
       <c r="E130">
         <v>9.5117173303343705</v>
       </c>
-      <c r="F130" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>127</v>
       </c>
-      <c r="B131" s="3">
-        <v>54.92</v>
-      </c>
-      <c r="C131" s="3">
-        <v>12.27</v>
+      <c r="B131">
+        <v>54.863728764418099</v>
+      </c>
+      <c r="C131">
+        <v>11.909485724724099</v>
       </c>
       <c r="D131">
         <v>54.903491501214702</v>
@@ -3511,18 +3453,18 @@
       <c r="E131">
         <v>11.9250387134979</v>
       </c>
-      <c r="F131" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>100</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132">
         <v>54.876207564489199</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132">
         <v>9.6575303567718809</v>
       </c>
       <c r="D132">
@@ -3531,18 +3473,18 @@
       <c r="E132">
         <v>9.6300580678025707</v>
       </c>
-      <c r="F132" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>97</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133">
         <v>54.83</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133">
         <v>9.27</v>
       </c>
       <c r="D133">
@@ -3551,19 +3493,19 @@
       <c r="E133">
         <v>9.3680635806341908</v>
       </c>
-      <c r="F133" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="3">
-        <v>54.83</v>
-      </c>
-      <c r="C134" s="3">
-        <v>11.1</v>
+      <c r="B134">
+        <v>54.831355567077502</v>
+      </c>
+      <c r="C134">
+        <v>11.0920518646404</v>
       </c>
       <c r="D134">
         <v>54.719669267561997</v>
@@ -3571,18 +3513,18 @@
       <c r="E134">
         <v>11.431309386907699</v>
       </c>
-      <c r="F134" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>131</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135">
         <v>54.811493992022399</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135">
         <v>11.510347300598299</v>
       </c>
       <c r="D135">
@@ -3591,18 +3533,18 @@
       <c r="E135">
         <v>11.576098273593001</v>
       </c>
-      <c r="F135" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>129</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136">
         <v>54.78</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136">
         <v>11.88</v>
       </c>
       <c r="D136">
@@ -3611,18 +3553,18 @@
       <c r="E136">
         <v>11.749616770090499</v>
       </c>
-      <c r="F136" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>134</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137">
         <v>54.78</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137">
         <v>11.33</v>
       </c>
       <c r="D137">
@@ -3631,18 +3573,18 @@
       <c r="E137">
         <v>11.3693622645856</v>
       </c>
-      <c r="F137" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>130</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138">
         <v>54.77</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138">
         <v>11.81</v>
       </c>
       <c r="D138">
@@ -3651,18 +3593,18 @@
       <c r="E138">
         <v>11.660544995777</v>
       </c>
-      <c r="F138" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>132</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139">
         <v>54.7728039290715</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139">
         <v>11.5003275474894</v>
       </c>
       <c r="D139">
@@ -3671,18 +3613,18 @@
       <c r="E139">
         <v>11.4890730048634</v>
       </c>
-      <c r="F139" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>128</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140">
         <v>54.561139763018303</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140">
         <v>11.962963025697301</v>
       </c>
       <c r="D140">
@@ -3691,7 +3633,7 @@
       <c r="E140">
         <v>11.8597938129227</v>
       </c>
-      <c r="F140" s="6">
+      <c r="F140">
         <v>0</v>
       </c>
     </row>
